--- a/вторая практика/таблица пиков 2 практика.xlsx
+++ b/вторая практика/таблица пиков 2 практика.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makhmutov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makhmutov\Documents\diplom_b\вторая практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54992EF-1B3C-443B-A157-81700FDAC8E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F084A460-EF34-4484-897C-7212825DE373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>10.1002/adfm.201001448</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>spectre before 200 cm^-1</t>
+  </si>
+  <si>
+    <t>silicon</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -708,6 +714,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1278,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1299,7 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="26.140625" customWidth="1"/>
     <col min="20" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -1790,7 +1800,7 @@
         <v>368.4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1857,35 +1867,35 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="101">
         <v>432</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="102">
         <v>426</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102">
         <v>434</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="103">
         <v>425</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="103">
         <v>440</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="104"/>
       <c r="S9" t="s">
         <v>25</v>
       </c>
@@ -2590,6 +2600,17 @@
       </c>
       <c r="R18" s="17" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="Q19" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="52"/>
+      <c r="U19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
